--- a/test/old/test_2017.xlsx
+++ b/test/old/test_2017.xlsx
@@ -27,7 +27,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="250">
+  <si>
+    <t>黄石</t>
+  </si>
+  <si>
+    <t>十堰</t>
+  </si>
+  <si>
+    <t>宜昌</t>
+  </si>
+  <si>
+    <t>襄阳</t>
+  </si>
+  <si>
+    <t>鄂州</t>
+  </si>
+  <si>
+    <t>荆门</t>
+  </si>
+  <si>
+    <t>孝感</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>黄冈</t>
+  </si>
+  <si>
+    <t>咸宁</t>
+  </si>
+  <si>
+    <t>随州</t>
+  </si>
   <si>
     <t>阿克苏</t>
   </si>
@@ -254,9 +287,6 @@
     <t>淮南</t>
   </si>
   <si>
-    <t>黄冈</t>
-  </si>
-  <si>
     <t>黄山</t>
   </si>
   <si>
@@ -305,9 +335,6 @@
     <t>荆门</t>
   </si>
   <si>
-    <t>荆州</t>
-  </si>
-  <si>
     <t>九江</t>
   </si>
   <si>
@@ -534,9 +561,6 @@
   </si>
   <si>
     <t>宿州</t>
-  </si>
-  <si>
-    <t>随州</t>
   </si>
   <si>
     <t>遂宁</t>
@@ -1906,13 +1930,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A242"/>
+  <dimension ref="A1:A253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2346,782 +2373,837 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
